--- a/Tarsas_kompetenciak_5_6 osztály.xlsx
+++ b/Tarsas_kompetenciak_5_6 osztály.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\alkalmazásaim\szocialis_komp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\szoc-es tarsas_kom_kerdoiv\szocialis_komp\steamlit cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{142252CF-9B2B-4977-B4A1-D3834EB77127}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2102D6-C42E-45C6-A790-B553137E1325}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Adatbevitel" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="126">
   <si>
     <t>1.</t>
   </si>
@@ -395,12 +395,18 @@
   </si>
   <si>
     <t>igen</t>
+  </si>
+  <si>
+    <t>Kategória</t>
+  </si>
+  <si>
+    <t>Kérdés</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -746,11 +752,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -761,6 +767,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2410,15 +2423,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x0101006CE672EF0457C547B53B7B128457CB28" ma:contentTypeVersion="2" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="3ef84f6205d0d3fbe04e8a25cdd92653">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c05d769e-2407-4b95-9265-d42f5757b401" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9dcc09ce32e374e66084a4ab14ee82e3" ns2:_="">
     <xsd:import namespace="c05d769e-2407-4b95-9265-d42f5757b401"/>
@@ -2566,6 +2570,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2573,14 +2586,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF452A53-E71D-424D-A881-B04DF878D823}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{069B285E-09A0-43FA-B631-25C046305465}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2594,6 +2599,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF452A53-E71D-424D-A881-B04DF878D823}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
